--- a/Smart-home-box-by-Hamza/Dnevnik aktivnosti - FITCC.xlsx
+++ b/Smart-home-box-by-Hamza/Dnevnik aktivnosti - FITCC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SmartHomeBoxByHamza\Smart-home-box-by-Hamza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF9E879-F78F-4F3C-802A-0A91E504AE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD02760-30BC-4BC0-B9E9-2880F57A01CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Implementacija slanja JSON objekata na napravljenje endpointove i testiranje komunikacije na frontendu</t>
   </si>
   <si>
-    <t>02.05.2024.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dodavanje senzora light na arduino, izmjene u Arduino IDE, izmjene u Firebase RT DB </t>
   </si>
   <si>
@@ -105,10 +102,25 @@
     <t>Dodavanje koda u Arduino IDE</t>
   </si>
   <si>
-    <t>Testiranje izvrsne i kontrolne strane</t>
-  </si>
-  <si>
-    <t>29.04.2024.</t>
+    <t>04.05.2024.</t>
+  </si>
+  <si>
+    <t>Implementacija mogucnosti dodavanja vise uredjaja - AUTENTIFIKACIJA</t>
+  </si>
+  <si>
+    <t>Korekcija table u sql bazi podataka i real-time bazi podataka na firebase, kreiranje endpintova na Web API (autentifikacija)</t>
+  </si>
+  <si>
+    <t>Frontend implementacija - AUTENTIFIKACIJA</t>
+  </si>
+  <si>
+    <t>05.05.2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korekcija komponente Profil u Angular projektu, dodavanje AuthServisa i Login komponente. </t>
+  </si>
+  <si>
+    <t>Izmjene u zaglavljima endpointova i firebase upita u Arduino IDE</t>
   </si>
 </sst>
 </file>
@@ -486,7 +498,7 @@
   <dimension ref="C2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +573,7 @@
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
@@ -589,7 +601,7 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -598,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
@@ -606,23 +618,39 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">

--- a/Smart-home-box-by-Hamza/Dnevnik aktivnosti - FITCC.xlsx
+++ b/Smart-home-box-by-Hamza/Dnevnik aktivnosti - FITCC.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SmartHomeBoxByHamza\Smart-home-box-by-Hamza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD02760-30BC-4BC0-B9E9-2880F57A01CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3766EE38-1BB8-4688-80E7-082E2E2DEA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -51,63 +62,63 @@
     <t xml:space="preserve">Firebase realtime baza podataka + html,css, js, vanilla javascript + arduino ide (nodemcu 2866 wifi).  Prezentirano na predmetu Internet of things kod prof.dr. Elmira Babovića, te potvrđen samostalan rad. </t>
   </si>
   <si>
+    <t>Implementacija ASP NET CORE Web Api + deploy</t>
+  </si>
+  <si>
     <t>20.04.2024.</t>
   </si>
   <si>
     <t>22.04.2024.</t>
   </si>
   <si>
+    <t>Endpointovi za pohranu podataka historiju podataka zabilježenih sa senzora i deploy web api-a i baze podataka na fitov server.</t>
+  </si>
+  <si>
     <t>Frontend implementacija</t>
   </si>
   <si>
     <t>24.04.2024.</t>
   </si>
   <si>
-    <t>Implementacija ASP NET CORE Web Api + deploy</t>
-  </si>
-  <si>
-    <t>Endpointovi za pohranu podataka historiju podataka zabilježenih sa senzora i deploy web api-a i baze podataka na fitov server.</t>
+    <t>Komponente temperature/humidity, security, gas/fire i korisnicki profil</t>
+  </si>
+  <si>
+    <t>Dodavanje koda u Arduino IDE</t>
+  </si>
+  <si>
+    <t>25.04.2024.</t>
+  </si>
+  <si>
+    <t>Implementacija slanja JSON objekata na napravljenje endpointove i testiranje komunikacije na frontendu</t>
   </si>
   <si>
     <t>Implementacija notifikacija email, whatsApp i sms poruke na web api-u</t>
   </si>
   <si>
-    <t>25.04.2024.</t>
-  </si>
-  <si>
-    <t>Komponente temperature/humidity, security, gas/fire i korisnicki profil</t>
-  </si>
-  <si>
     <t>26.04.2024.</t>
   </si>
   <si>
+    <t>27.04.2024.</t>
+  </si>
+  <si>
     <t>Koristenje Smtp servisa i Twilio servisa u c# asp net core web api</t>
   </si>
   <si>
-    <t>27.04.2024.</t>
+    <t>Dodavanje senzora light</t>
   </si>
   <si>
     <t>28.04.2024.</t>
   </si>
   <si>
-    <t>Implementacija slanja JSON objekata na napravljenje endpointove i testiranje komunikacije na frontendu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dodavanje senzora light na arduino, izmjene u Arduino IDE, izmjene u Firebase RT DB </t>
-  </si>
-  <si>
-    <t>Dodavanje koda u Arduino IDE za upravljanje light senzorom, izmjene u Realtime DB na Firebase i testiranje komunikacije na frontendu.</t>
-  </si>
-  <si>
-    <t>Dodavanje koda u Arduino IDE</t>
+    <t>Dodavanje koda u Arduino IDE za upravljanje light senzorom, izmjene u Realtime DB na Firebase, dodavanje Light komponente u Angularu i testiranje komunikacije na frontendu.</t>
+  </si>
+  <si>
+    <t>Implementacija mogucnosti dodavanja vise uredjaja - AUTENTIFIKACIJA</t>
   </si>
   <si>
     <t>04.05.2024.</t>
   </si>
   <si>
-    <t>Implementacija mogucnosti dodavanja vise uredjaja - AUTENTIFIKACIJA</t>
-  </si>
-  <si>
     <t>Korekcija table u sql bazi podataka i real-time bazi podataka na firebase, kreiranje endpintova na Web API (autentifikacija)</t>
   </si>
   <si>
@@ -117,17 +128,47 @@
     <t>05.05.2024.</t>
   </si>
   <si>
-    <t xml:space="preserve">Korekcija komponente Profil u Angular projektu, dodavanje AuthServisa i Login komponente. </t>
-  </si>
-  <si>
-    <t>Izmjene u zaglavljima endpointova i firebase upita u Arduino IDE</t>
+    <t>Korekcija komponente Profil u Angular projektu, dodavanje AuthServisa, Login komponente i Password komponente za promjenu sifre</t>
+  </si>
+  <si>
+    <t>Izmjene u zaglavlju endpointova i firebase upita u Arduino IDE</t>
+  </si>
+  <si>
+    <t>Dodavanje pregleda prijavljenih uredjaja i mogucnost odjave</t>
+  </si>
+  <si>
+    <t>06.05.2024.</t>
+  </si>
+  <si>
+    <t>Dodavanje endpointova, dodavanje komponente u angularu</t>
+  </si>
+  <si>
+    <t>Optimizacija koda na frontendu i u Arduino IDE</t>
+  </si>
+  <si>
+    <t>07.05.2024.</t>
+  </si>
+  <si>
+    <t>13.05.2024.</t>
+  </si>
+  <si>
+    <t>Dodavanje dark/light mode</t>
+  </si>
+  <si>
+    <t>14.05.2024.</t>
+  </si>
+  <si>
+    <t>Dodavanje photoresistora na nodemcu, dodavanje varijable na firebase i izmjene na frontendu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy  web stranice na github.io i app.fit.ba </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,21 +536,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F26"/>
+  <dimension ref="C2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="3" width="70.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="85.5546875" customWidth="1"/>
+    <col min="3" max="3" width="70.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6">
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -537,97 +578,97 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6">
       <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6">
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
       <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6">
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
@@ -641,7 +682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6">
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
@@ -653,89 +694,129 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+    <row r="13" spans="3:6">
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    <row r="15" spans="3:6">
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Smart-home-box-by-Hamza/Dnevnik aktivnosti - FITCC.xlsx
+++ b/Smart-home-box-by-Hamza/Dnevnik aktivnosti - FITCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SmartHomeBoxByHamza\Smart-home-box-by-Hamza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3766EE38-1BB8-4688-80E7-082E2E2DEA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2C76B36-56A0-44AC-B3D8-A779C64D6009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
     <t>22.04.2024.</t>
   </si>
   <si>
-    <t>Endpointovi za pohranu podataka historiju podataka zabilježenih sa senzora i deploy web api-a i baze podataka na fitov server.</t>
+    <t>Endpointovi za pohranu historije podataka zabilježenih sa senzora i deploy web api-a i baze podataka na fitov server.</t>
   </si>
   <si>
     <t>Frontend implementacija</t>
@@ -110,7 +110,7 @@
     <t>28.04.2024.</t>
   </si>
   <si>
-    <t>Dodavanje koda u Arduino IDE za upravljanje light senzorom, izmjene u Realtime DB na Firebase, dodavanje Light komponente u Angularu i testiranje komunikacije na frontendu.</t>
+    <t>Dodavanje koda u Arduino IDE za upravljanje light senzorom, izmjene u Realtime DB na Firebase, korekcija u SQL bazi, dodavanje endpointova na WEB API, dodavanje Light komponente u Angularu i testiranje komunikacije na frontendu.</t>
   </si>
   <si>
     <t>Implementacija mogucnosti dodavanja vise uredjaja - AUTENTIFIKACIJA</t>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>

--- a/Smart-home-box-by-Hamza/Dnevnik aktivnosti - FITCC.xlsx
+++ b/Smart-home-box-by-Hamza/Dnevnik aktivnosti - FITCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SmartHomeBoxByHamza\Smart-home-box-by-Hamza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2C76B36-56A0-44AC-B3D8-A779C64D6009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47AE0C2-851E-4633-AAD6-6A3D621B0270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -234,11 +234,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -256,6 +284,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -547,7 +581,7 @@
     <col min="3" max="3" width="70.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="85.5703125" customWidth="1"/>
+    <col min="6" max="6" width="216.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
@@ -636,7 +670,7 @@
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -647,10 +681,10 @@
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -664,7 +698,7 @@
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
